--- a/data/subscriptions.xlsx
+++ b/data/subscriptions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Data Analysis\Wills Films\Streaming Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Data Analysis\Wills Films\Streaming Analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AAF93B-8C70-49F2-B3AD-4B4E6A3BC50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0E40FFE-EB2F-44BA-B413-157CA133F716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B912BFB9-4380-4444-8E27-71AF11EC11FE}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="notes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Year</t>
   </si>
@@ -47,6 +48,36 @@
   </si>
   <si>
     <t>Hulu</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Data Sources</t>
+  </si>
+  <si>
+    <t>1. Netflix - searchlogistics.com; https://www.searchlogistics.com/learn/statistics/netflix-statistics/</t>
+  </si>
+  <si>
+    <t>2. Prime - businessofapps.com; https://www.businessofapps.com/data/amazon-prime-video-statistics/</t>
+  </si>
+  <si>
+    <t>3. Disney Plus - businessofapps.com; https://www.businessofapps.com/data/disney-plus-statistics/</t>
+  </si>
+  <si>
+    <t>4. Hulu - businessofapps.com; https://www.businessofapps.com/data/hulu-statistics/</t>
+  </si>
+  <si>
+    <t>5. Max - https://www.businessofapps.com/data/hbo-max-statistics/</t>
+  </si>
+  <si>
+    <t>6. Paramount Plus - Wikipedia and associated links</t>
+  </si>
+  <si>
+    <t>1. All figures are rounded to 1 decimal place.
+2. Users are used rather than subscriptions for Prime as Prime Video is a subsidiary of Amazon Prime.
+3. Paramount numbers are estimates configured from reports.
+4. For Hulu and Max, subscription figures are taken from Q4 of the year.</t>
   </si>
 </sst>
 </file>
@@ -81,8 +112,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -170,7 +204,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-GB"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -545,6 +579,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
                 <c:pt idx="8">
                   <c:v>32.799999999999997</c:v>
                 </c:pt>
@@ -1798,7 +1835,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1908,6 +1945,9 @@
       <c r="D9">
         <v>33.5</v>
       </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
       <c r="F9">
         <v>55.6</v>
       </c>
@@ -2015,12 +2055,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CDD59D-2C05-4E58-9CF1-608AFF4C9F2B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="77" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>